--- a/data/hotels_by_city/Houston/Houston_shard_106.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_106.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d2437163-Reviews-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Comfort-Suites-At-Katy-Mills.h4720465.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1587 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r581699875-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>2437163</t>
+  </si>
+  <si>
+    <t>581699875</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Recoup from the trail ride</t>
+  </si>
+  <si>
+    <t>Me and my daughter went to a trail ride in Sunny Side. Afterwards, I wanted to stay in a nice affordable hotel. I read the reviews and chose this hotel. I was not disappointed. I had guaranteed a king size suite. The room was very big and and spacious. The bed was super comfy. The pullout was a nice size. The AC blew snowballs. The hot did not run out; it stayed really hot the entirety of both of our extremely long showers. Breakfast was the usual but it was really good. I loved the banana nut waffles and the eggs were quite tasty. The only negative that made me give them a 4⭐️ instead of a 5⭐️ was because of their late checkout policy. I had called ahead and told the clerk we would not arrive until after 12am. He had everything prepared for me when i arrived after 2am. I asked for a late checkout and he said ok that would be an additional $15 charge, to which i declined. This was disappointing because some of the other name brand chain hotels will automatically offer you a late check out free of charge when you arrive so late. But i guess it is the difference when you stay in 4+⭐️ rated hotels versus the others. All in all, i would recommend this location and i will be back for another stay in july. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Me and my daughter went to a trail ride in Sunny Side. Afterwards, I wanted to stay in a nice affordable hotel. I read the reviews and chose this hotel. I was not disappointed. I had guaranteed a king size suite. The room was very big and and spacious. The bed was super comfy. The pullout was a nice size. The AC blew snowballs. The hot did not run out; it stayed really hot the entirety of both of our extremely long showers. Breakfast was the usual but it was really good. I loved the banana nut waffles and the eggs were quite tasty. The only negative that made me give them a 4⭐️ instead of a 5⭐️ was because of their late checkout policy. I had called ahead and told the clerk we would not arrive until after 12am. He had everything prepared for me when i arrived after 2am. I asked for a late checkout and he said ok that would be an additional $15 charge, to which i declined. This was disappointing because some of the other name brand chain hotels will automatically offer you a late check out free of charge when you arrive so late. But i guess it is the difference when you stay in 4+⭐️ rated hotels versus the others. All in all, i would recommend this location and i will be back for another stay in july. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r575059292-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>575059292</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>We stayed here for a night while on the road.  It was nice - clean, quiet, decent breakfast, friendly staff, conveniently located by the interstate, etc.  The room was large and had enormous ceilings.  We slept great and would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r567115012-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>567115012</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>This was the first time we have stayed at this hotel. The room was spacious and the separate sitting area was very nice. Loved the bed. Pillows were a little hard but not bad. The only downside was our room faced the front of the hotel which was by the freeway. The noise was quite loud at times. Will consider staying again if there are rooms that do not face the freeway.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r546461494-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>546461494</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>We spent two nights at this hotel this weekend and we were very happy with our accommodations.  I especially appreciated the electrical outlets on the bedside lamps since I use a CPAP machine and frequently find outlets difficult to find.  I also appreciated the USB power outlets on the desk in the room.  The room was very nice and spacious. This hotel is within walking distance of several restaurants and shopping places.  Wal-Mart is next door to the hotel.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r541872453-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>541872453</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurricane accommodations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for 2 weeks while my home was under repair due to hurricane Harvey. The staff was great and treated us as valued guests. The free breakfast each morning was decent.  Overall, this was a nice hotel with good pricing, a nice efficient staff, and I recommend it for business or leisure. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r537952661-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>537952661</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troy at the front desk was awesome he was friendly he was helpful he got done what no one else seem to be able to do he was able to pick my guys for two weeks after I had a horrible experience with the Hilton I truly appreciate everything that he did for me and we will definitely be giving them or business from here on out. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r491206815-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>491206815</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>When a review is earned!</t>
+  </si>
+  <si>
+    <t>Super nice hotel.  Not only was the room big and roomy but the queen beds were very comfortable. Super clean Hotel!!   Thank you Allen who Checked us in and out. Nice staff member who deserves recognition. The breakfast was good especially for the price for this hotel. Thank you for the Banana nut waffles.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r488556425-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>488556425</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Small business travlers</t>
+  </si>
+  <si>
+    <t>We checked into hotel and asked about a corporate rate for a 90 stay, we were directed to speak to  sales manager Christine, who told us because we were not a big company like IBM she would do nothing for us, she then quoted me a rate that was higher than the online price @  Choice Hotels. Christine was rude and did nothing but drive us away from Comfort Suites. Thankfully Marriot stepped up and treated us like family.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r475301607-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>475301607</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Great One Night Stay</t>
+  </si>
+  <si>
+    <t>We reserved this hotel for a one night stay in Katy.  The lobby is nicely decorated, and the staff is friendly.  Check in was quick and easy.  The elevators are a little slow, but there are only three floors.  We were placed on the third floor, but unfortunately, our room was right by the elevators.  For some reason, the "ding" for the elevator is very loud, and the room runs right along the elevators so I knew it would be a problem.  When I called the front desk I was put on hold.  After waiting for a while, I hung up, but they called me back very shortly.  They were very nice about helping us move to another room, but the only rooms they had available were on the 2nd floor.  If you stay here, I would definitely recommend the third floor as far away from the elevators as possible.  It is a pretty noisy place for some reason, and you can hear a lot that goes on above you and in the hallway.  However, the rooms seemed very clean with the exception of a stain on the carpet, and a small stain on the comforter.  I'm very picky, and it met my standards even with the stains.  Since it is a suite, the set up was nice, the room was a nice size and everything was very comfortable.  Check out the photos I've posted.  Also, it's in a very...We reserved this hotel for a one night stay in Katy.  The lobby is nicely decorated, and the staff is friendly.  Check in was quick and easy.  The elevators are a little slow, but there are only three floors.  We were placed on the third floor, but unfortunately, our room was right by the elevators.  For some reason, the "ding" for the elevator is very loud, and the room runs right along the elevators so I knew it would be a problem.  When I called the front desk I was put on hold.  After waiting for a while, I hung up, but they called me back very shortly.  They were very nice about helping us move to another room, but the only rooms they had available were on the 2nd floor.  If you stay here, I would definitely recommend the third floor as far away from the elevators as possible.  It is a pretty noisy place for some reason, and you can hear a lot that goes on above you and in the hallway.  However, the rooms seemed very clean with the exception of a stain on the carpet, and a small stain on the comforter.  I'm very picky, and it met my standards even with the stains.  Since it is a suite, the set up was nice, the room was a nice size and everything was very comfortable.  Check out the photos I've posted.  Also, it's in a very convenient location.  It's a little tricky getting into their parking lot, but the mall is right there as are many restaurants.  We were there with a large group for a dance competition so we all hung out by the pool in the evening.  It's just a regular hotel pool, and it is on the shaded side of the building, but the kids had a blast.  Overall, this hotel is nothing super special, but it was great for our purposes.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>We reserved this hotel for a one night stay in Katy.  The lobby is nicely decorated, and the staff is friendly.  Check in was quick and easy.  The elevators are a little slow, but there are only three floors.  We were placed on the third floor, but unfortunately, our room was right by the elevators.  For some reason, the "ding" for the elevator is very loud, and the room runs right along the elevators so I knew it would be a problem.  When I called the front desk I was put on hold.  After waiting for a while, I hung up, but they called me back very shortly.  They were very nice about helping us move to another room, but the only rooms they had available were on the 2nd floor.  If you stay here, I would definitely recommend the third floor as far away from the elevators as possible.  It is a pretty noisy place for some reason, and you can hear a lot that goes on above you and in the hallway.  However, the rooms seemed very clean with the exception of a stain on the carpet, and a small stain on the comforter.  I'm very picky, and it met my standards even with the stains.  Since it is a suite, the set up was nice, the room was a nice size and everything was very comfortable.  Check out the photos I've posted.  Also, it's in a very...We reserved this hotel for a one night stay in Katy.  The lobby is nicely decorated, and the staff is friendly.  Check in was quick and easy.  The elevators are a little slow, but there are only three floors.  We were placed on the third floor, but unfortunately, our room was right by the elevators.  For some reason, the "ding" for the elevator is very loud, and the room runs right along the elevators so I knew it would be a problem.  When I called the front desk I was put on hold.  After waiting for a while, I hung up, but they called me back very shortly.  They were very nice about helping us move to another room, but the only rooms they had available were on the 2nd floor.  If you stay here, I would definitely recommend the third floor as far away from the elevators as possible.  It is a pretty noisy place for some reason, and you can hear a lot that goes on above you and in the hallway.  However, the rooms seemed very clean with the exception of a stain on the carpet, and a small stain on the comforter.  I'm very picky, and it met my standards even with the stains.  Since it is a suite, the set up was nice, the room was a nice size and everything was very comfortable.  Check out the photos I've posted.  Also, it's in a very convenient location.  It's a little tricky getting into their parking lot, but the mall is right there as are many restaurants.  We were there with a large group for a dance competition so we all hung out by the pool in the evening.  It's just a regular hotel pool, and it is on the shaded side of the building, but the kids had a blast.  Overall, this hotel is nothing super special, but it was great for our purposes.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r465098728-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>465098728</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>No hot water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over all the hotel is in pretty good shape. Our major issie was our room had no hot water when we checked in at midnight. The next morning at 9am it was luke warm at best. The free breakfast was sufficient with a good mix of items. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r434067465-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>434067465</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Mini Vacay</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay very much. Our room was spacious, and very clean. The coffee and breakfast was good. All staff we encountered were pleasant and helpful. The lotion they provide is out of this world. Can't wait for our next stay.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r433379568-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>433379568</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Awesome, awesome, awesome!</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel twice (6 nights for both visits). Firstly, I MUST commend the customer service at this hotel, especially that of Trevor! He went above and beyond his duties and made my stay in Katy even more wonderful with his warm and friendly personality. He definitely made a positive first impression. It was evident that he really cares about their guests and loves what he does. Moreover, other employees had this same positive attitude-like the driver of the shuttle (can't believe I forgot his name). He was also very amicable and made my stay even better. With regards to the room, it was very clean, modern, spacious, quiet and well equipped with everything I needed, including a mini refrigerator and microwave. The location of the hotel is great as well since the very convenient Walmart is literally next door. The thing I liked least was not having my family with me, but didn't realize that until after my stay because I really did feel at home, thanks to the staff. Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel twice (6 nights for both visits). Firstly, I MUST commend the customer service at this hotel, especially that of Trevor! He went above and beyond his duties and made my stay in Katy even more wonderful with his warm and friendly personality. He definitely made a positive first impression. It was evident that he really cares about their guests and loves what he does. Moreover, other employees had this same positive attitude-like the driver of the shuttle (can't believe I forgot his name). He was also very amicable and made my stay even better. With regards to the room, it was very clean, modern, spacious, quiet and well equipped with everything I needed, including a mini refrigerator and microwave. The location of the hotel is great as well since the very convenient Walmart is literally next door. The thing I liked least was not having my family with me, but didn't realize that until after my stay because I really did feel at home, thanks to the staff. Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r421154947-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>421154947</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Great EXCEPT for desk/work area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairly new hotel, great condition, friendly staff. Room was very nice, spacious and reasonably quiet. Breakfast was decent which consisted of waffles, cereal, fruit, yogurt, cinnamon rolls, biscuits &amp; gravy, sausage links and an egg 'patty'. My only issue was the desk in my room was so high I couldn't adjust the chair high enough to work. I'm a tall man but it was very awkward. Put a taller chair in the room and everything would be great. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r418608576-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>418608576</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Ok, so I have stayed at this location many times. The property is still very new, so it is in really good condition, rooms are very comfortable and the beds are great.  Where this hotel falls a little short is the front desk training.  The girls who work the front desk are very nice, and are very professional. Other front desk staff doesn't greet you when you walk by, and are not very professional.  I am in hotel 300 nights a year and know professional when I see it.  Another problem is when mail comes in for guests, they don't turn on the message light, the guy at the front desk said that "they only use the message light for when guests call and leave a message, we don't use it for mail for guests" yeah okay, so I went to the front desk asking for mail, like its such a hassle for him to see if I have any mail, he brought the first package out and I said that I should have another one, he walked back to see and there it was.  New Front desk practices need to be implemented at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ok, so I have stayed at this location many times. The property is still very new, so it is in really good condition, rooms are very comfortable and the beds are great.  Where this hotel falls a little short is the front desk training.  The girls who work the front desk are very nice, and are very professional. Other front desk staff doesn't greet you when you walk by, and are not very professional.  I am in hotel 300 nights a year and know professional when I see it.  Another problem is when mail comes in for guests, they don't turn on the message light, the guy at the front desk said that "they only use the message light for when guests call and leave a message, we don't use it for mail for guests" yeah okay, so I went to the front desk asking for mail, like its such a hassle for him to see if I have any mail, he brought the first package out and I said that I should have another one, he walked back to see and there it was.  New Front desk practices need to be implemented at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r412711868-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>412711868</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Had room on first floor. Even tho it was by the entrance and kitchen area it was quiet.clean hotel. Very friendly staff .Overall breakfast was good. Pastry was old.Good parking area. Close to Katy Mills Mall. Easy access to I-10.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r404091531-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>404091531</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Great place for a short stop</t>
+  </si>
+  <si>
+    <t>We stayed one night en route from New Orleans to San Antonia. It's close to the main road and adjacent to the Katy Mills outlet Mall with a number of eating options close by.The hotel was fabulous, a very large suite with everything you need including a kitchen with fridge freezer and a microwaveBreakfast is plentiful and the eating area is very pleasant and spacious</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r397460397-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>397460397</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>After midnight</t>
+  </si>
+  <si>
+    <t>Super Clean...Super Quiet...Healthy breakfast with lots of choices for all ages..(even adults eating Fruit Loops!!) AND THE BOLD COFFEE WAS REALLY BOLD ...YESWe arrived after 1a.m. with no problems checking in..</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r388284241-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>388284241</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Return trip home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New hotel which meets most if not all of the travelers' needs.   Rooms are large, beds wonderful, and extremely clean.   Front desk personnel, particularly Trevor, was outstanding.   Sufficient parking for vehicles and RVs.   Next door to a 24-hour Wal-Mart for travel needs.  </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r379948154-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>379948154</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Mixed review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First thing - great military family rate and we appreciate it. Room very small- long and narrow. Bathroom tiny. Bed and bedding fine  . Hotel fairly new. Breakfast about average. Attendant very good about keeping good replenished. Outdoor pool- very cloudy. Let granddaughter swim but only bc her heart was set on it. Hotel is right on i10 access road. Accessible from Katy mills mall parking lot but very hard to get to- through multiple parking lots  Two elevators- one broken. Bright wine but forgot corkscrew. Out of luck- front desk had none. Kind of seems like the bargain cousin of other comfort suites we've stayed in. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r373445403-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>373445403</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>The receptionist was awesome roomWas clean it was just a one night stay but we did get to relax. This hotel is close to many restaurants and shops. I have nothing left to say.  Why do you want me to say more I was only there for 8 hours. You still want me to say more I can't say anything more there's nothing more to say</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r367842579-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>367842579</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Nice, comfortable stay</t>
+  </si>
+  <si>
+    <t>We stayed three nights recently in a suite with two queen beds. The hotel was very clean, and the housekeeping and breakfast area staff were so friendly. The breakfast buffet had just about everything you could want, including those really good make-your-own waffles. There was even a waffle baker shaped like Texas! We were back in the area after living elsewhere for many years, and the staff was very helpful giving us directions and suggestions.My only minor complaints were the pillows - they were really small (but comfortable), and the space around the bed. I slept on the side by the wall, and there was barely enough room for me to squeeze past the bed to get in or out. The bed was a little too firm for me, but my husband loved it. We'll be back again next time we're in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We stayed three nights recently in a suite with two queen beds. The hotel was very clean, and the housekeeping and breakfast area staff were so friendly. The breakfast buffet had just about everything you could want, including those really good make-your-own waffles. There was even a waffle baker shaped like Texas! We were back in the area after living elsewhere for many years, and the staff was very helpful giving us directions and suggestions.My only minor complaints were the pillows - they were really small (but comfortable), and the space around the bed. I slept on the side by the wall, and there was barely enough room for me to squeeze past the bed to get in or out. The bed was a little too firm for me, but my husband loved it. We'll be back again next time we're in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r356543763-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>356543763</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Spacious rooms &amp; great breakfast!!</t>
+  </si>
+  <si>
+    <t>We only stayed one night at this comfort suites – but it was very comfortable, clean and spacious. The breakfast buffet had a big assortment of food and a large, comfortable eating area. If you're in the area again we will definitely stay here.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r351825029-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>351825029</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Perfect nights sleep</t>
+  </si>
+  <si>
+    <t>Good location, beside the I 10 interstate and right beside my wife's favorite store, Walmart. Clean and pleasant. Decent continental breakfast. Handicap rooms available. Reasonably priced. Also has complementary items such as a toothbrush or razor for the just in case...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r351207978-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>351207978</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>A mix of good and apathy</t>
+  </si>
+  <si>
+    <t>Price and location is good - right next to Hwy 10. Room, beds, bathroom all clean. Guest laundry is excellent. Mic and Fridge in room a big plus.Desk clerk in evening didn't smile for the 6 days I was there. Upon check in he was more interested in his cell phone and the movie on the tv than making eye contact with me, smiling and welcoming me to the property. I am a member of Choice Privileges but that wasn't acknowledged. I wasn't offered points or the "goody bag". I was expecting two packages but I wasn't notified when they arrived. When I went to call the desk, the two room phones were not working. I reported this to the unsmiling desk clerk and the phones are still not working after day 5. The TV has a pop up about the sound system and other benefits which I couldn't turn off.MoreShow less</t>
+  </si>
+  <si>
+    <t>Price and location is good - right next to Hwy 10. Room, beds, bathroom all clean. Guest laundry is excellent. Mic and Fridge in room a big plus.Desk clerk in evening didn't smile for the 6 days I was there. Upon check in he was more interested in his cell phone and the movie on the tv than making eye contact with me, smiling and welcoming me to the property. I am a member of Choice Privileges but that wasn't acknowledged. I wasn't offered points or the "goody bag". I was expecting two packages but I wasn't notified when they arrived. When I went to call the desk, the two room phones were not working. I reported this to the unsmiling desk clerk and the phones are still not working after day 5. The TV has a pop up about the sound system and other benefits which I couldn't turn off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r327507358-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>327507358</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Just Perfect</t>
+  </si>
+  <si>
+    <t>Very clean and comfy room. Microwave, fridge and extra sleeper sofa makes it very enjoyable for family trip. Hot breakfast every day and service was just great. Swimming pool, fitness room, laundry room and business center makes it very comfortable to stay here and not to mention convenient of Highway I 10 and Walmart makes it super easy to travel in the area and able to get anything you need.I will recommend this place to everyone.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r325013900-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>325013900</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>good business hotel</t>
+  </si>
+  <si>
+    <t>Stayed for a business trip and it was a good stay. no food options on site, other than the pantry, but they have just opened a new hotel across the road that does. there is also a few options close by.They do a free buffet for a couple of hours in the evening</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r322484908-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>322484908</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Hotel seems relatively new, very clean.  Has the appearance of a luxury hotel.  Polite staff.  Toilet ran all night the first night here.  I told the staff and it was repaired when I returned to room.  Right off the highway and easy to reach, despite Houston traffic.  Lots of places to eat near by.  Mattress was very comfortable, I wish I had one like it.  Reasonably priced.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r305911835-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>305911835</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>This hotel had very nice rooms, was very clean, and had friendly staff. It is located within walking distance to Katy Mills Mall as well as other shopping and restaurants. I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r304246900-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>304246900</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>There was a RAT in my room</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in 2014 for a weekend while I was in town for a wedding. The first night I heard scratching in a corner and ignored the noise. The rooms had thin walls and I was distracted by all the other noises. After returning to my room the next morning I could still hear scratching noises and pinpointed them to the sofa sleeper. I call the front desk and maintenance came to my room. He heard the noise and mentioned the known rodent problem in the stairwell. He opened the couch and out scurried a rat to the other side of the room to behind the dresser. 
+The maintanence man helped my gather my things and switch rooms. I was in town for the wedding I was maid of honor in and did not have time to change hotels and knew most other hotels were at capacity for the weekend. I did not sleep well and was distraught at the fact I was only a few rooms down from my original room.I left my number with the front desk and asked for the manager to call me. The weekend went by, I checked out, and never heard from the manager. 
+I had to call the manager back to speak with her. She gave a lousy apology and was not willing to offer any sort of accommodation for my ordeal. I called corporate and was told that since...I stayed at this hotel in 2014 for a weekend while I was in town for a wedding. The first night I heard scratching in a corner and ignored the noise. The rooms had thin walls and I was distracted by all the other noises. After returning to my room the next morning I could still hear scratching noises and pinpointed them to the sofa sleeper. I call the front desk and maintenance came to my room. He heard the noise and mentioned the known rodent problem in the stairwell. He opened the couch and out scurried a rat to the other side of the room to behind the dresser. The maintanence man helped my gather my things and switch rooms. I was in town for the wedding I was maid of honor in and did not have time to change hotels and knew most other hotels were at capacity for the weekend. I did not sleep well and was distraught at the fact I was only a few rooms down from my original room.I left my number with the front desk and asked for the manager to call me. The weekend went by, I checked out, and never heard from the manager. I had to call the manager back to speak with her. She gave a lousy apology and was not willing to offer any sort of accommodation for my ordeal. I called corporate and was told that since the hotel was independently owned, the best they could do was give me a $30 credit. I refused their offer. I am outraged that after such an ordeal, no one was willing to try and reach out to me. I am also disgusted that this place serves everyone breakfast with their rodent problem.  This rat must be used to humans for it not to be afraid of getting so close. The rat was also eating the mattress in the pull out couch. I am never staying here again and warn all my friends whenever we are passing though town.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Ash G, Manager at Comfort Suites at Katy Mills, responded to this reviewResponded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in 2014 for a weekend while I was in town for a wedding. The first night I heard scratching in a corner and ignored the noise. The rooms had thin walls and I was distracted by all the other noises. After returning to my room the next morning I could still hear scratching noises and pinpointed them to the sofa sleeper. I call the front desk and maintenance came to my room. He heard the noise and mentioned the known rodent problem in the stairwell. He opened the couch and out scurried a rat to the other side of the room to behind the dresser. 
+The maintanence man helped my gather my things and switch rooms. I was in town for the wedding I was maid of honor in and did not have time to change hotels and knew most other hotels were at capacity for the weekend. I did not sleep well and was distraught at the fact I was only a few rooms down from my original room.I left my number with the front desk and asked for the manager to call me. The weekend went by, I checked out, and never heard from the manager. 
+I had to call the manager back to speak with her. She gave a lousy apology and was not willing to offer any sort of accommodation for my ordeal. I called corporate and was told that since...I stayed at this hotel in 2014 for a weekend while I was in town for a wedding. The first night I heard scratching in a corner and ignored the noise. The rooms had thin walls and I was distracted by all the other noises. After returning to my room the next morning I could still hear scratching noises and pinpointed them to the sofa sleeper. I call the front desk and maintenance came to my room. He heard the noise and mentioned the known rodent problem in the stairwell. He opened the couch and out scurried a rat to the other side of the room to behind the dresser. The maintanence man helped my gather my things and switch rooms. I was in town for the wedding I was maid of honor in and did not have time to change hotels and knew most other hotels were at capacity for the weekend. I did not sleep well and was distraught at the fact I was only a few rooms down from my original room.I left my number with the front desk and asked for the manager to call me. The weekend went by, I checked out, and never heard from the manager. I had to call the manager back to speak with her. She gave a lousy apology and was not willing to offer any sort of accommodation for my ordeal. I called corporate and was told that since the hotel was independently owned, the best they could do was give me a $30 credit. I refused their offer. I am outraged that after such an ordeal, no one was willing to try and reach out to me. I am also disgusted that this place serves everyone breakfast with their rodent problem.  This rat must be used to humans for it not to be afraid of getting so close. The rat was also eating the mattress in the pull out couch. I am never staying here again and warn all my friends whenever we are passing though town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r300472243-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>300472243</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Great hotel and super staff!</t>
+  </si>
+  <si>
+    <t>Stayed for a four day/three night business stay and the hotel was perfect! Large, extremely clean rooms with full list of amenities. Every staff member I encountered from the moment I checked in at front desk (great job by Trevor!) to the housekeeper on the way out were very friendly and extremely helpful. Convenient location in Katy and 1-2 minute walk to Star Bucks and Shipley's...how can you go wrong there! Stay with confidence!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r287744629-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>287744629</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Ooh, purty</t>
+  </si>
+  <si>
+    <t>This hotel was beautiful. It is so nice to walk into a Comfort Suites, because the immense difference between this and just a Comfort Inn is so worth it. Gorgeous fixtures, I want them in my house! Beds were nice, room was clean. Definitely staying here again!</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r287657645-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>287657645</t>
+  </si>
+  <si>
+    <t>Great hotel but...</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights on the weekend of the 4th of July. Though the hotel is located right next to a freeway, we were surprised not to hear any noise from outside. Nice hotel, polite staff and several choices of breakfast foods; however, me and my husband were constantly awaken of the noise above us in the wee hours of the morning and it happened each night of our stay. On our last day, we realized our room is right below the laundry area thus the noises we heard; we won't be probably making the same mistake of staying on the first/ground floor of any hotels from now on. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights on the weekend of the 4th of July. Though the hotel is located right next to a freeway, we were surprised not to hear any noise from outside. Nice hotel, polite staff and several choices of breakfast foods; however, me and my husband were constantly awaken of the noise above us in the wee hours of the morning and it happened each night of our stay. On our last day, we realized our room is right below the laundry area thus the noises we heard; we won't be probably making the same mistake of staying on the first/ground floor of any hotels from now on. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r286531943-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>286531943</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Would stay here again in Katy</t>
+  </si>
+  <si>
+    <t>We were in Katy for the weekend, CS is next to the highway (but it's quiet) so uber convenient to get around. Walking distance to many shops and restaurants AND Shipley's Donuts. The breakfast set up is fantastic--Texas shaped make ur own waffles!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r272270787-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>272270787</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Comfort as its name. We have stayed 6 nights in this hotel. The staff are emthuiastic and nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r271881558-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>271881558</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Brand New, Spacious Rooms, Very Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My wife and I stayed here for 1 night on our moving trip east. It was a little confusing to find because there is a Comfort Inn and Suites a few miles away also in Katy TX. The Katy Mills property is the better of the two as it is only a year old. Room was very nice...felt more like a four star room with a living room, sofa, and small kitchenette. Breakfast is complimentary which was OK...but not great. If you're looking for a stopover, this is a good pick. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r263288751-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>263288751</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Overall OK stay</t>
+  </si>
+  <si>
+    <t>Thought this was a solid three star hotel (on a scale of 1 star being Motel 6, 2 star being a Best Western, four star being a Hyatt and five star being a Four Seasons). Check in was easy and the front desk staff was helpful. Room was clean and looked like the pictures. The hotel is right off I-10 so easy to access.Pros - the water for the shower was hot with good water pressure. Check in and out was easy.  They do have a free hot breakfast. Parking is free. Running the fan in the room does help block noise.Cons - fruit selection at breakfast was iffy.... wanted a banana but there was only one in the basket and it was half brown (and the apples were not very firm).  Unless you turn the fan on in the room you can hear EVERYTHING (I heard someone sneeze in the parking lot from my second floor room).Would probably stay here again if I needed a budget hotel for this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Thought this was a solid three star hotel (on a scale of 1 star being Motel 6, 2 star being a Best Western, four star being a Hyatt and five star being a Four Seasons). Check in was easy and the front desk staff was helpful. Room was clean and looked like the pictures. The hotel is right off I-10 so easy to access.Pros - the water for the shower was hot with good water pressure. Check in and out was easy.  They do have a free hot breakfast. Parking is free. Running the fan in the room does help block noise.Cons - fruit selection at breakfast was iffy.... wanted a banana but there was only one in the basket and it was half brown (and the apples were not very firm).  Unless you turn the fan on in the room you can hear EVERYTHING (I heard someone sneeze in the parking lot from my second floor room).Would probably stay here again if I needed a budget hotel for this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r262326420-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>262326420</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>I'd be happy to move in and live here!</t>
+  </si>
+  <si>
+    <t>This was just an overnight stop for us on a long journey. This hotel was far better than any others we've stayed at in this price range. The beds were extremely comfortable, everything looked shiny new and luxurious - it was a pleasure to stay there. The breakfast was average for this level of hotel, although its cinnamon rolls were warm, which was a bonus! The only negative was the wifi was slower than we expected, but we mentioned it to the front desk and he appreciated that. We were helped by Nik at reception and he was excellent. He was warm and welcoming, efficient and yet friendly, and nothing was too much trouble. He's a great asset to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Ash G, General Manager at Comfort Suites at Katy Mills, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>This was just an overnight stop for us on a long journey. This hotel was far better than any others we've stayed at in this price range. The beds were extremely comfortable, everything looked shiny new and luxurious - it was a pleasure to stay there. The breakfast was average for this level of hotel, although its cinnamon rolls were warm, which was a bonus! The only negative was the wifi was slower than we expected, but we mentioned it to the front desk and he appreciated that. We were helped by Nik at reception and he was excellent. He was warm and welcoming, efficient and yet friendly, and nothing was too much trouble. He's a great asset to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r261295433-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>261295433</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Unexpected, yet GREAT stay</t>
+  </si>
+  <si>
+    <t>Made a spur of the moment trip to Katy, TX looking for vehicles for our kids and ended up at  Comfort Suites. Our stay was excellent!  Trevor, at the front desk, literally made a long rough day feel like we were coming home to rest, by his hospitality and help.  He was friendly, helped us with information about the area, but mostly I could tell he took the time to notice we were exhausted and in need of rest.  Hard to explain, but that sort of personal care made the stay feel like home.  The hotel was clean, the room was awesome, the staff was friendly, the breakfast was good.  I actually wish we could have stayed one more day!  Thanks Comfort Suites and Trevor for helping us recover and refresh after a long day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Made a spur of the moment trip to Katy, TX looking for vehicles for our kids and ended up at  Comfort Suites. Our stay was excellent!  Trevor, at the front desk, literally made a long rough day feel like we were coming home to rest, by his hospitality and help.  He was friendly, helped us with information about the area, but mostly I could tell he took the time to notice we were exhausted and in need of rest.  Hard to explain, but that sort of personal care made the stay feel like home.  The hotel was clean, the room was awesome, the staff was friendly, the breakfast was good.  I actually wish we could have stayed one more day!  Thanks Comfort Suites and Trevor for helping us recover and refresh after a long day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r253250468-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>253250468</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here one night and have to say this is a very nice hotel. Clean and comfortable with a friendly staff. The location is very good with food and shopping all within walking distance.I have only this complaint; the water pressure was week and I think they use a water softener that makes it feel like the soap never washes off. Some people might like that but I'm not one of them.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r249365191-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>249365191</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Good basic lodging in Katy</t>
+  </si>
+  <si>
+    <t>Much of the information you need to make a choice on where to stay in Katy is already covered in previous reviews, but I wanted to add our impressions of this property- just to help a potential client adjust their expectation level at the outset about the quality of the hotel.
+The hotel is newish, but they are using some funky cleaning supplies and air "freshener" in there and I sneezed more there than I ever have anywhere... bought an Allegra to try to minimize that.  Our room/suite was large and comfortable- facing the back of the strip center which was more preferable to us than facing the freeway.  We stayed for functionality as the hotel was very close to a hospital we were visting each day while there.  The location is very convenient to Katy Mills Mall which is a kind of "destination" mall.  It is a huge mall with activity parks and climbing walls along with national chains and a Bass Pro Shop.  The mall area has its share of satellite restaurants so it is a good place to return to after a day in meetings or whatever else puts you in a 15 mile radius of Katy Mills.  
+It is not, however, a nice place to go- just to go.  There were several unsavory characters around the premises when we were there.  I wouldn't go there by myself as a solo woman traveler.  Found a pair of...Much of the information you need to make a choice on where to stay in Katy is already covered in previous reviews, but I wanted to add our impressions of this property- just to help a potential client adjust their expectation level at the outset about the quality of the hotel.The hotel is newish, but they are using some funky cleaning supplies and air "freshener" in there and I sneezed more there than I ever have anywhere... bought an Allegra to try to minimize that.  Our room/suite was large and comfortable- facing the back of the strip center which was more preferable to us than facing the freeway.  We stayed for functionality as the hotel was very close to a hospital we were visting each day while there.  The location is very convenient to Katy Mills Mall which is a kind of "destination" mall.  It is a huge mall with activity parks and climbing walls along with national chains and a Bass Pro Shop.  The mall area has its share of satellite restaurants so it is a good place to return to after a day in meetings or whatever else puts you in a 15 mile radius of Katy Mills.  It is not, however, a nice place to go- just to go.  There were several unsavory characters around the premises when we were there.  I wouldn't go there by myself as a solo woman traveler.  Found a pair of sweatpants under our car one morning as we left for the hospital... um, okay.The breakfast was okay but it was not a selling point for a return visit.  The common area was clean and the breakfast items were well stocked, but there was something very sad about both the eggs and sausage. No flavor.  Texture was strange as well which indicates to me that the base product was not very authentic.  Coffee, yogurts and cereals are out though so you can fill up on those if you need to get out early. The hotel is also right behind a Shipley's with a drive up window.  In fact, if you are having trouble finding how to get into the hotel, just find the Shipley's.  The hotel is right behind it and a pretty nice little Italian restaurant.Desk staff was friendly enough.  I did not feel unsafe there, but there was a certain edgy feel to the place that, as I said, would have me staying at one of my other regular hotels usually- both located closer to the Park Ten area.  For our purposes, it was fine.  Fridge in the room- sitting area with couch.  Lots of room to stretch out and the decor is not obnoxious.  We were on the third floor.  Recommended as the clientele may not care about their noise levels in the wee hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Much of the information you need to make a choice on where to stay in Katy is already covered in previous reviews, but I wanted to add our impressions of this property- just to help a potential client adjust their expectation level at the outset about the quality of the hotel.
+The hotel is newish, but they are using some funky cleaning supplies and air "freshener" in there and I sneezed more there than I ever have anywhere... bought an Allegra to try to minimize that.  Our room/suite was large and comfortable- facing the back of the strip center which was more preferable to us than facing the freeway.  We stayed for functionality as the hotel was very close to a hospital we were visting each day while there.  The location is very convenient to Katy Mills Mall which is a kind of "destination" mall.  It is a huge mall with activity parks and climbing walls along with national chains and a Bass Pro Shop.  The mall area has its share of satellite restaurants so it is a good place to return to after a day in meetings or whatever else puts you in a 15 mile radius of Katy Mills.  
+It is not, however, a nice place to go- just to go.  There were several unsavory characters around the premises when we were there.  I wouldn't go there by myself as a solo woman traveler.  Found a pair of...Much of the information you need to make a choice on where to stay in Katy is already covered in previous reviews, but I wanted to add our impressions of this property- just to help a potential client adjust their expectation level at the outset about the quality of the hotel.The hotel is newish, but they are using some funky cleaning supplies and air "freshener" in there and I sneezed more there than I ever have anywhere... bought an Allegra to try to minimize that.  Our room/suite was large and comfortable- facing the back of the strip center which was more preferable to us than facing the freeway.  We stayed for functionality as the hotel was very close to a hospital we were visting each day while there.  The location is very convenient to Katy Mills Mall which is a kind of "destination" mall.  It is a huge mall with activity parks and climbing walls along with national chains and a Bass Pro Shop.  The mall area has its share of satellite restaurants so it is a good place to return to after a day in meetings or whatever else puts you in a 15 mile radius of Katy Mills.  It is not, however, a nice place to go- just to go.  There were several unsavory characters around the premises when we were there.  I wouldn't go there by myself as a solo woman traveler.  Found a pair of sweatpants under our car one morning as we left for the hospital... um, okay.The breakfast was okay but it was not a selling point for a return visit.  The common area was clean and the breakfast items were well stocked, but there was something very sad about both the eggs and sausage. No flavor.  Texture was strange as well which indicates to me that the base product was not very authentic.  Coffee, yogurts and cereals are out though so you can fill up on those if you need to get out early. The hotel is also right behind a Shipley's with a drive up window.  In fact, if you are having trouble finding how to get into the hotel, just find the Shipley's.  The hotel is right behind it and a pretty nice little Italian restaurant.Desk staff was friendly enough.  I did not feel unsafe there, but there was a certain edgy feel to the place that, as I said, would have me staying at one of my other regular hotels usually- both located closer to the Park Ten area.  For our purposes, it was fine.  Fridge in the room- sitting area with couch.  Lots of room to stretch out and the decor is not obnoxious.  We were on the third floor.  Recommended as the clientele may not care about their noise levels in the wee hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r248869457-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>248869457</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>I enjoyed my services from the beginning to the end. Trevor was excellent he gave me the best services at the beginning and ended when I left with Zoey she has the best smile and I pray I got her name right she worked the desk Sunday morning 1/11/2015. I left my watch she went right back in the room and found it and left it at the front desk with Trevor when I was able to get there.  Thanks again for the best customer service this is my hotel. Love it tell Trevor and Zoey GaiI Richard said thanks for everything it was a pleasure.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r245703506-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>245703506</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>It is home when you are away from home</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and quite I enjoyed staying there.People who work the were very nice. The guy at the lobby( Travis) really helped me when I was there,and the driver (juan) she always come on time.That shows the employees how serious they take the professional. For sure any visit in Katy Mills Comfort Suites will be my home</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r242197143-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>242197143</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location and the price is right!  The grounds and rooms are very clean and up to date.  The suites are roomy and beds are comfortable. The breakfast area is spotless and we enjoyed a very nice breakfast. We will definately stay there again on our next trip to Katy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r242165534-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>242165534</t>
+  </si>
+  <si>
+    <t>Nice Family Hotel</t>
+  </si>
+  <si>
+    <t>Hotel was very clean, modern and in a safe area near many things we needed while there.Had an indoor pool which was great for the kids and a nice breakfast.While near Houston, not convenient to Houston; you need to be visiting someone in Kay area for it to be a convenient location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r237902552-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>237902552</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Really Nice Stay</t>
+  </si>
+  <si>
+    <t>This hotel was nice and clean.  It is located close to mall, Walmart, restaurants and shops.   Great selection for breakfast-waffles, eggs, sausage, fruit, small pastries, yogurt-which was more than expected based on other reviews.  Desk attendant was helpful and very professional.  Comfortable beds.  Our first room was freshly shampooed so the floor was wet but when we called the attendant and they quickly ran new keys to another room upstairs to move us to another room.  Free USA Today paper.  Would definitely stay again when visiting Houston.  It is about a 25-30 minute drive into Houston.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r233135849-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>233135849</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>WOW'd</t>
+  </si>
+  <si>
+    <t>Russian roulette picking this hotel. A friend suggested an area to stay in (Kate Mills Mall) during a trip and I picked this hotel at random.  Walked in and was not only pleasantly greeted by the front desk, but engaged in a good 5 to 10 minute conversation about my visit to the area and my hometown.  Got up to my room and was WOW'd by how nice it was (especially for the price I was paying).  Lovely and comfortable bed, couch/sitting area and spacious bathroom.  Super quiet considering my window looked out over the freeway - never heard a car all night.  And in the morning, a beautiful breakfast buffet was laid out downstairs.  I was visiting a friend (who was on an air mattress while staying with her sister) and I felt horrible about not dragging her with me to the hotel for the night.  Absolute great experience and if I ever find myself out that way again, I know where I am staying!MoreShow less</t>
+  </si>
+  <si>
+    <t>Russian roulette picking this hotel. A friend suggested an area to stay in (Kate Mills Mall) during a trip and I picked this hotel at random.  Walked in and was not only pleasantly greeted by the front desk, but engaged in a good 5 to 10 minute conversation about my visit to the area and my hometown.  Got up to my room and was WOW'd by how nice it was (especially for the price I was paying).  Lovely and comfortable bed, couch/sitting area and spacious bathroom.  Super quiet considering my window looked out over the freeway - never heard a car all night.  And in the morning, a beautiful breakfast buffet was laid out downstairs.  I was visiting a friend (who was on an air mattress while staying with her sister) and I felt horrible about not dragging her with me to the hotel for the night.  Absolute great experience and if I ever find myself out that way again, I know where I am staying!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r231586466-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>231586466</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Weekend Stay</t>
+  </si>
+  <si>
+    <t>My wife and I spent a couple nights at the Comfort Suites, Katy Mills, for a family get together.  One of the nights was free due to points accumulated.  The hotel is very clean and fairly new.  It is back to back with the next door Wal-Mart but there is little traffic due to that situation.  The rooms are quiet.  Even though we were on the 3rd floor even with the I10 overpass, we heard little from the street.  We had a king room and it was very nice and clean.  I would recommend you stay there for a short visit.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r227543818-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>227543818</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>Very clean and new!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't typically stay at Comfort Inn / Comfort Suites, but I was pleasantly surprised with the cleanliness and comfort we experienced. We had a king room and the bed was very very comfortable! The rooms are quiet, decor is modern and up to date, and everything seems new! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r222000525-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>222000525</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>We only stayed overnight, but we loved this hotel! The rooms are spacious, spotless and comfortable. The breakfast is good. The wifi worked great! The hotel feels new. We really had a pleasurable stay. Would definitely stay again and recommend to friends and family.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r221082076-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>221082076</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Helpful Hotel in Time of Need</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel two nights as we were visiting MD Anderson for medical reasons. They were super and gave us a discount for being there for medical reasons which really helped a lot. They were super friendly and helpful and was there to answer any and every need. They had cookies and liquid refreshments every evening and a very nice breakfast in the mornings. Their rooms were very clean and comfortable and we had not problems at all staying there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r220225501-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>220225501</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Nice rooms, confortable</t>
+  </si>
+  <si>
+    <t>Excellent hotel when staying a couple of days. Near shopping mall, this hotel is quite a flathotel, rooms like small appartment. Good breakfast. No restaurant. Swimming pool ok.I like the swimming pool</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r206477821-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>206477821</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Nice Rooms</t>
+  </si>
+  <si>
+    <t>The location of the hotel is awkwardly tucked between a strip mall and the free way but the room was surprisingly quiet inside. Room was nice and clean with a comfortable bed and plenty of hot water for the shower. The breakfast is ok but not great and the dining area is large enough that seats are always available.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r205360163-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>205360163</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Great desk clerk</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in March, 2014.  We arrived later than we planned, got off at the wrong exit, got lost, and called for directions.  The clerk was very helpful, calming (I was a little tired and frazzled), reassuring us that we were very close, and gave us our directions--and we managed to find the hotel finally!  Thanks, Trevor!The room was very nice, the breakfast was good, it was easy to get back on the highway--I would recommend this hotel!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r204599166-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>204599166</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Clean and Convenient (Amusing Room!)</t>
+  </si>
+  <si>
+    <t>We needed to stay in Katy for making an early doctor's appointment in the morning and thus this was one of the closest and easiest for us.  It was also surprisingly one of the last places available as well. 
+The local at the front desk recommended Babins for a dining choice.  Was very knowledgeable with the entire surrounding area too.   The room was clean and although we didn't use them, the amenities were sufficient.  They have use of the pool at the Hampton Inn, right across the parking lot since it's owned by the same parent company.  That was a nice extra feature and had we arrived earlier in the day, we may have used that one.  Either way, the option is nice. 
+Just a little interesting thoughts not the room itself.  The trim out job was a fairly lax - thus they tried to use calking to fill in their huge gaps in the wall and around the bathroom area.  Their sheetrock job must have happened on Monday for the lowest discount possible.  Even popcorn finish can't hide lines like that.   The funniest thing we have seen in a while was how sitting in the desk by the window, one can see the nice slant on the wall by the door.  It's amazing that the door actually opens when you see this non square section!!!   So don't look too close at the finish work at the hotel.  
+We may...We needed to stay in Katy for making an early doctor's appointment in the morning and thus this was one of the closest and easiest for us.  It was also surprisingly one of the last places available as well. The local at the front desk recommended Babins for a dining choice.  Was very knowledgeable with the entire surrounding area too.   The room was clean and although we didn't use them, the amenities were sufficient.  They have use of the pool at the Hampton Inn, right across the parking lot since it's owned by the same parent company.  That was a nice extra feature and had we arrived earlier in the day, we may have used that one.  Either way, the option is nice. Just a little interesting thoughts not the room itself.  The trim out job was a fairly lax - thus they tried to use calking to fill in their huge gaps in the wall and around the bathroom area.  Their sheetrock job must have happened on Monday for the lowest discount possible.  Even popcorn finish can't hide lines like that.   The funniest thing we have seen in a while was how sitting in the desk by the window, one can see the nice slant on the wall by the door.  It's amazing that the door actually opens when you see this non square section!!!   So don't look too close at the finish work at the hotel.  We may be back in Katy, Tx in a year for another medical appointment but I think we would plan to look ahead to maybe staying at someplace a little nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>We needed to stay in Katy for making an early doctor's appointment in the morning and thus this was one of the closest and easiest for us.  It was also surprisingly one of the last places available as well. 
+The local at the front desk recommended Babins for a dining choice.  Was very knowledgeable with the entire surrounding area too.   The room was clean and although we didn't use them, the amenities were sufficient.  They have use of the pool at the Hampton Inn, right across the parking lot since it's owned by the same parent company.  That was a nice extra feature and had we arrived earlier in the day, we may have used that one.  Either way, the option is nice. 
+Just a little interesting thoughts not the room itself.  The trim out job was a fairly lax - thus they tried to use calking to fill in their huge gaps in the wall and around the bathroom area.  Their sheetrock job must have happened on Monday for the lowest discount possible.  Even popcorn finish can't hide lines like that.   The funniest thing we have seen in a while was how sitting in the desk by the window, one can see the nice slant on the wall by the door.  It's amazing that the door actually opens when you see this non square section!!!   So don't look too close at the finish work at the hotel.  
+We may...We needed to stay in Katy for making an early doctor's appointment in the morning and thus this was one of the closest and easiest for us.  It was also surprisingly one of the last places available as well. The local at the front desk recommended Babins for a dining choice.  Was very knowledgeable with the entire surrounding area too.   The room was clean and although we didn't use them, the amenities were sufficient.  They have use of the pool at the Hampton Inn, right across the parking lot since it's owned by the same parent company.  That was a nice extra feature and had we arrived earlier in the day, we may have used that one.  Either way, the option is nice. Just a little interesting thoughts not the room itself.  The trim out job was a fairly lax - thus they tried to use calking to fill in their huge gaps in the wall and around the bathroom area.  Their sheetrock job must have happened on Monday for the lowest discount possible.  Even popcorn finish can't hide lines like that.   The funniest thing we have seen in a while was how sitting in the desk by the window, one can see the nice slant on the wall by the door.  It's amazing that the door actually opens when you see this non square section!!!   So don't look too close at the finish work at the hotel.  We may be back in Katy, Tx in a year for another medical appointment but I think we would plan to look ahead to maybe staying at someplace a little nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r199431474-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>199431474</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Last minute booking</t>
+  </si>
+  <si>
+    <t>Needed a place to stay last minute and found that this hotel had a rate of $115/night. I called to see if there were any vacancies and the guy working told me yes and that he would knock the price down to $99. The hotel seemed to be fairly new and we were pleasantly surprised with the rooms. Very nice and clean, bed was extra large king, We had Dish Network satellite service which Ive never had in a hotel before. Would definitely stay here again if given the chance. Didn't have time to check out pool or breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r198768655-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>198768655</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Best Choice Hotel property yet</t>
+  </si>
+  <si>
+    <t>This property is almost underneath I-10, just west of central Houston which, if you are driving west is good because in the early AM you are going against the rush hour. The hotel is fairly new and has the feel of an upscale property with all the amenities except a restaurant.. We stayed here in late January ,2014. Restaurants are within easy walking distance. The room was not noisy despite the proximity to I-10 . The breakfast is served in a restaurant like setting with hot and cold selections. The room and bathroom were both spotless and large. While there is no view, you can jump back onto I-10 in the AM with no problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>This property is almost underneath I-10, just west of central Houston which, if you are driving west is good because in the early AM you are going against the rush hour. The hotel is fairly new and has the feel of an upscale property with all the amenities except a restaurant.. We stayed here in late January ,2014. Restaurants are within easy walking distance. The room was not noisy despite the proximity to I-10 . The breakfast is served in a restaurant like setting with hot and cold selections. The room and bathroom were both spotless and large. While there is no view, you can jump back onto I-10 in the AM with no problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r198400856-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>198400856</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Nice property, if you can find the entrance</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel twice.  It is very modern, clean and well kept.  Beds are very comfortable.  My last stay however, I wanted to extend 3 more nights, at the rate I had been paying, $99.  The night auditor told me I could.  When I went back down to the front desk a few hours later, the day clerk told me it would be a rate of $115, then $171 for the next 2 nights.  I went down i-10 to another hotel after they wouldn't change their minds.  The rooms are quiet, but have a very ugly view of the strip mall behind the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r192367989-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>192367989</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed one night Jan 2014.  Hotel was clean and comfortable.  Room was very nice. Close to highway but very quiet in room. Elevators were malfunctioning while we were. The call button on the 3rd floor wasn't calling the elevator. Front desk would send elevator to 3rd floor every 5 minutes. I didn't even realize it was not working until someone else thanked the staff for their thoughtfulness.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r192228164-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>192228164</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>Excellent!!</t>
+  </si>
+  <si>
+    <t>Made a quick stop. Hotel is VERY clean. Which is great. Beds were really comfortable and the breakfast bar was a nice surprise. I travel a lot and this was a wonderful stay. Right off of I10, close to the mall and stores. Very convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ash G, Manager at Comfort Suites at Katy Mills, responded to this reviewResponded January 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2014</t>
+  </si>
+  <si>
+    <t>Made a quick stop. Hotel is VERY clean. Which is great. Beds were really comfortable and the breakfast bar was a nice surprise. I travel a lot and this was a wonderful stay. Right off of I10, close to the mall and stores. Very convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r187296113-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>187296113</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>NICE KATY HOTEL</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel prior to a cruise. The hotel was clean, comfortable and near restaurants and shopping. (mall) This hotel is not near the cruise port and we stayed there for other reasons also.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Ash G, General Manager at Comfort Suites at Katy Mills, responded to this reviewResponded December 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel prior to a cruise. The hotel was clean, comfortable and near restaurants and shopping. (mall) This hotel is not near the cruise port and we stayed there for other reasons also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r180069166-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>180069166</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>COMFORTABLE STAY</t>
+  </si>
+  <si>
+    <t>Newly built hotel, very good room decor, my duaghter love the place, excellant location for my family need. Though did not use the breakfast facility but I believe it would also be good.Excellant staff and service, very clean I must recommend to my all friends when they are going to visit Katy, Chuck Cheese next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ash G, General Manager at Comfort Suites at Katy Mills, responded to this reviewResponded October 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2013</t>
+  </si>
+  <si>
+    <t>Newly built hotel, very good room decor, my duaghter love the place, excellant location for my family need. Though did not use the breakfast facility but I believe it would also be good.Excellant staff and service, very clean I must recommend to my all friends when they are going to visit Katy, Chuck Cheese next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r177650475-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>177650475</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Few complaints would stay there again</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights and I have no complaints. Breakfast was decent for hotel (hot eggs, bacon, sausage, b&amp;g, yogourt, waffles, etc). Wifi worked pretty good and the wired ethernet connection at the desk within the room is always nice. My only complaint is that the TV shuts off automatically every 20min or so. I tend to fall asleep with the TV on and this made it a little bit of a pain. Minor annoyance only. The shuttle van was for the most part on time and driver was curteous. I would recommend and stay here again. Apparently there was a domestic disupute that required police attention on the same floor I stayed on. I did not here a thing nor was I disturbed. I didn't even know it happened so sound control in rooms must be pretty good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights and I have no complaints. Breakfast was decent for hotel (hot eggs, bacon, sausage, b&amp;g, yogourt, waffles, etc). Wifi worked pretty good and the wired ethernet connection at the desk within the room is always nice. My only complaint is that the TV shuts off automatically every 20min or so. I tend to fall asleep with the TV on and this made it a little bit of a pain. Minor annoyance only. The shuttle van was for the most part on time and driver was curteous. I would recommend and stay here again. Apparently there was a domestic disupute that required police attention on the same floor I stayed on. I did not here a thing nor was I disturbed. I didn't even know it happened so sound control in rooms must be pretty good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r176894676-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>176894676</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Accommodations</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights at Comfort Suites while visiting Family. Suite was really well appointed and very comfortable with Sofa and table and chairs. Breakfast was Great and Staff were very Courteous and Friendly. Hotel is within walking distance of the Huge Katy Mills Mall, next door to the Huge Wal-Mart and right off of the Highway (I-10).  Would definitely stay there again when in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights at Comfort Suites while visiting Family. Suite was really well appointed and very comfortable with Sofa and table and chairs. Breakfast was Great and Staff were very Courteous and Friendly. Hotel is within walking distance of the Huge Katy Mills Mall, next door to the Huge Wal-Mart and right off of the Highway (I-10).  Would definitely stay there again when in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r169067961-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>169067961</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Party Central</t>
+  </si>
+  <si>
+    <t>Apparently drinking beer and yelling in the lobby while standing next to the night manager at 1:30 am on a Sunday morning is acceptable in this motel. In the room next to us there was another party going on. When we called the front desk at 1:45 am on Sunday morning to complain, we were told that the guests next door were paying customers and we were reminded that it was Saturday night and people party on Saturday night.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r164503947-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>164503947</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel! Would return..</t>
+  </si>
+  <si>
+    <t>-Hotel was quiet-Rooms were spacious, beds very comfortable. Except pull out sofa sleeper was not comfortable.-Location was perfect. Close to mall, movie theatre and restaurants-Was hesistant because it was purchased on Hotwire but was glad I did. Very satisfied-Pool was great for family fun. Hot tub was good too.Will stay here again.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r164447630-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>164447630</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r157359487-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>157359487</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>I stayed here for about a week when I was visiting Houston and I would not hesitate to stay here again. The hotel was clean and quiet, both the common areas and my room. The staff was friendly and helpful. For example, I need to get to the Enterprise which is on the other side of the Katy Mills Mall, a little over a mile away. When I asked them to call me a taxi, the wonderful man at the front desk told me taxis won't drive me such a short distance but the walk is bit too long so he had someone drive me over there right away. He even called Enterprise to let them know I was coming.  The complimentary breakfast is good, but a bit repetitive so I would eat out for breakfast sometimes. One caveat is that this place is a bit far from downtown Houston. The Katy Freeway is right outside and gets you all over Houston but the drive is about 45 minutes or so to downtown and this is not NYC so no mass transit. If you stay at this hotel, I recommend having access to a car or someone to drive you around. I wasn't here as tourist so the location was perfect for me, but it may not be convenient if you are a tourist. There are a lot of restaurants and pharmacies nearby. Also the Katy Mills Mall is in...I stayed here for about a week when I was visiting Houston and I would not hesitate to stay here again. The hotel was clean and quiet, both the common areas and my room. The staff was friendly and helpful. For example, I need to get to the Enterprise which is on the other side of the Katy Mills Mall, a little over a mile away. When I asked them to call me a taxi, the wonderful man at the front desk told me taxis won't drive me such a short distance but the walk is bit too long so he had someone drive me over there right away. He even called Enterprise to let them know I was coming.  The complimentary breakfast is good, but a bit repetitive so I would eat out for breakfast sometimes. One caveat is that this place is a bit far from downtown Houston. The Katy Freeway is right outside and gets you all over Houston but the drive is about 45 minutes or so to downtown and this is not NYC so no mass transit. If you stay at this hotel, I recommend having access to a car or someone to drive you around. I wasn't here as tourist so the location was perfect for me, but it may not be convenient if you are a tourist. There are a lot of restaurants and pharmacies nearby. Also the Katy Mills Mall is in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for about a week when I was visiting Houston and I would not hesitate to stay here again. The hotel was clean and quiet, both the common areas and my room. The staff was friendly and helpful. For example, I need to get to the Enterprise which is on the other side of the Katy Mills Mall, a little over a mile away. When I asked them to call me a taxi, the wonderful man at the front desk told me taxis won't drive me such a short distance but the walk is bit too long so he had someone drive me over there right away. He even called Enterprise to let them know I was coming.  The complimentary breakfast is good, but a bit repetitive so I would eat out for breakfast sometimes. One caveat is that this place is a bit far from downtown Houston. The Katy Freeway is right outside and gets you all over Houston but the drive is about 45 minutes or so to downtown and this is not NYC so no mass transit. If you stay at this hotel, I recommend having access to a car or someone to drive you around. I wasn't here as tourist so the location was perfect for me, but it may not be convenient if you are a tourist. There are a lot of restaurants and pharmacies nearby. Also the Katy Mills Mall is in...I stayed here for about a week when I was visiting Houston and I would not hesitate to stay here again. The hotel was clean and quiet, both the common areas and my room. The staff was friendly and helpful. For example, I need to get to the Enterprise which is on the other side of the Katy Mills Mall, a little over a mile away. When I asked them to call me a taxi, the wonderful man at the front desk told me taxis won't drive me such a short distance but the walk is bit too long so he had someone drive me over there right away. He even called Enterprise to let them know I was coming.  The complimentary breakfast is good, but a bit repetitive so I would eat out for breakfast sometimes. One caveat is that this place is a bit far from downtown Houston. The Katy Freeway is right outside and gets you all over Houston but the drive is about 45 minutes or so to downtown and this is not NYC so no mass transit. If you stay at this hotel, I recommend having access to a car or someone to drive you around. I wasn't here as tourist so the location was perfect for me, but it may not be convenient if you are a tourist. There are a lot of restaurants and pharmacies nearby. Also the Katy Mills Mall is in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r153514555-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>153514555</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Stayed here one night in January, 2013 with my family. It was a very nice and clean hotel. The hotel appeared to be a new hotel, and was kept spotless. Friendly staff. Would recommend this hotel and would stay here again if I were in the area. Standard hotel breakfast, and it was well attended to. Was not disappointed with anything!</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r153481563-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>153481563</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>Stayed here for one night. Very clean, the room was nice and the bathroom was spotless, which is a must for me. Staff was friendly and called once we were in the room to see if everything was ok, I like that, no Hotel has ever checked on me. The price was very good too. Decided at the last minute to grab breakfast there, very nice free buffet, with eggs and waffles.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r146821960-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>146821960</t>
+  </si>
+  <si>
+    <t>12/05/2012</t>
+  </si>
+  <si>
+    <t>Slamming Doors</t>
+  </si>
+  <si>
+    <t>I recently had to visit my son and stay for 4 nights.  This hotel is Very nice.  Beautiful room, Fridge, Microwave. Bathroom was very nice.  BUT.....the rooms are not very sound proof.  Two of the nights, we had people in the room above us, you could here them walking from one end of their room to the other.  THEN the real kicker was the doors.....all four nights.....people that were coming and going would let their doors slam behind them.....I could not get to sleep until after 11:30 each night.    I had to be at my sons by 5 am....that made for a very stressful stay.  I would recommend the hotel put some sort of door mechanism that would slow the doors down just before they latch.  Other than the noise....it was a very nice, very well priced hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I recently had to visit my son and stay for 4 nights.  This hotel is Very nice.  Beautiful room, Fridge, Microwave. Bathroom was very nice.  BUT.....the rooms are not very sound proof.  Two of the nights, we had people in the room above us, you could here them walking from one end of their room to the other.  THEN the real kicker was the doors.....all four nights.....people that were coming and going would let their doors slam behind them.....I could not get to sleep until after 11:30 each night.    I had to be at my sons by 5 am....that made for a very stressful stay.  I would recommend the hotel put some sort of door mechanism that would slow the doors down just before they latch.  Other than the noise....it was a very nice, very well priced hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r144561063-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>144561063</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Beyond expectations</t>
+  </si>
+  <si>
+    <t>Beautiful big and open rooms. Very clean and great smell in the air. The staff is friendly and efficient. The free breakfast was tasty...biscuits and gravy, eggs, sausage, waffles, fresh fruit, cereal, yogurt.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r143956561-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>143956561</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Excellent Stay &amp; Customer Service</t>
+  </si>
+  <si>
+    <t>I was in town for a work conference and spent one night in this hotel, but I wish it were more. It was so relaxing and comfortable. Just like my other reviews, let me break it down by my experience. I've attached pictures as well.
+Arrival:  There is plenty of parking in front and to the right of the hotel. The front desk gentleman greeted me and immediately looked up my reservation. I gave him my ID and a credit card for incidentals (although my room was prepaid by my company).  He handed me my room key and I was off to my room. The arrival was quick and easy, just how it should be.
+Room 307:  The room decor is modern and comfortable. The room size was perfect. The bathroom was normal sized. There was a small sitting area that contained a couch (which was also a sleeper), a sitting chair, and a coffee table. The desk had a ethernet cord you can plug your laptop into. If you want to use your wifi, just open your internet page and it will automatically bring you to the Comfort Suites welcome page in which you have to click on "Agree" to activate the wifi. You will need to do this for your phone too. It also contains two usb plugs to charge your phone, etc..  The tv was 42" and a very nice size. However, you have to swivel it...I was in town for a work conference and spent one night in this hotel, but I wish it were more. It was so relaxing and comfortable. Just like my other reviews, let me break it down by my experience. I've attached pictures as well.Arrival:  There is plenty of parking in front and to the right of the hotel. The front desk gentleman greeted me and immediately looked up my reservation. I gave him my ID and a credit card for incidentals (although my room was prepaid by my company).  He handed me my room key and I was off to my room. The arrival was quick and easy, just how it should be.Room 307:  The room decor is modern and comfortable. The room size was perfect. The bathroom was normal sized. There was a small sitting area that contained a couch (which was also a sleeper), a sitting chair, and a coffee table. The desk had a ethernet cord you can plug your laptop into. If you want to use your wifi, just open your internet page and it will automatically bring you to the Comfort Suites welcome page in which you have to click on "Agree" to activate the wifi. You will need to do this for your phone too. It also contains two usb plugs to charge your phone, etc..  The tv was 42" and a very nice size. However, you have to swivel it in whatever direction, if you want to watch it while laying in bed or in the sitting room. The bed is very comfortable. Down comforter, 5 pillows, and the bed was perfectly firm. Although there is a wall unit (for the A/C or heater) next to the bed, the thermostat is in the sitting room. There is a cabinet in which there is a microwave and a fridge. The fridge did not have the normal dial to where you can adjust the cooling settings, which was a little annoying since the bottle of water &amp; soda I put in the fridge at night, was semi-cold in the morning. So don't expect the fridge to keep anything super cool. The view outside my room was the dock area in the back of Walmart. Great hotel, bad location. The only thing I found a little annoying about that, was that I could hear the delivery semi-trucks arriving and parking throughout the night. But again, I was in town for a conference, not for vacation. I didn't mind it too much and it's not like I was looking for a view. My curtains were closed the entire time.Vending Machines: According to the directory, each floor has an ice machine and a vending machine.  Wrong. Each floor has an ice machine, but the only vending machine is on the first floor and it's on the very end of the right side of the hotel. So if you want a cold drink and you're on floors 2 or 3, you will be either taking the elevator or the stairs. And it's on the side of the lower number rooms. I was 307, so it was on that side of the hotel.Continental Breakfast: Just like any other Comfort Suites, you get a free breakfast. This breakfast is the usual continental fare. Instant scrambled eggs, bacon, waffle maker, choice of cereals, yogurt, fruit, coffee, juice. Customer Service: I just wanted to say that they provided me with excellent customer service. Unfortunately I forgot to pack my toothbrush, so I called the front desk at 6am and asked if they had any. The front desk representative said that they do, but they have no one to deliver it. I said no problem I will come get it. Before I could throw on some clothes, there was a knock on my door and the guy had a toothbrush and toothpaste for me. I tried to tip him and he would not accept it. I thought this was awesome! It was nice to see the front desk person go out of their way, especially so early in the morning. I'm kinda wondering if he was the manager as well....All and all, I would definitely stay here. DO NOT get this place confused with the not-as-nice Comfort "Inn" on the same street. I would definitely come back to this hotel and definitely recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I was in town for a work conference and spent one night in this hotel, but I wish it were more. It was so relaxing and comfortable. Just like my other reviews, let me break it down by my experience. I've attached pictures as well.
+Arrival:  There is plenty of parking in front and to the right of the hotel. The front desk gentleman greeted me and immediately looked up my reservation. I gave him my ID and a credit card for incidentals (although my room was prepaid by my company).  He handed me my room key and I was off to my room. The arrival was quick and easy, just how it should be.
+Room 307:  The room decor is modern and comfortable. The room size was perfect. The bathroom was normal sized. There was a small sitting area that contained a couch (which was also a sleeper), a sitting chair, and a coffee table. The desk had a ethernet cord you can plug your laptop into. If you want to use your wifi, just open your internet page and it will automatically bring you to the Comfort Suites welcome page in which you have to click on "Agree" to activate the wifi. You will need to do this for your phone too. It also contains two usb plugs to charge your phone, etc..  The tv was 42" and a very nice size. However, you have to swivel it...I was in town for a work conference and spent one night in this hotel, but I wish it were more. It was so relaxing and comfortable. Just like my other reviews, let me break it down by my experience. I've attached pictures as well.Arrival:  There is plenty of parking in front and to the right of the hotel. The front desk gentleman greeted me and immediately looked up my reservation. I gave him my ID and a credit card for incidentals (although my room was prepaid by my company).  He handed me my room key and I was off to my room. The arrival was quick and easy, just how it should be.Room 307:  The room decor is modern and comfortable. The room size was perfect. The bathroom was normal sized. There was a small sitting area that contained a couch (which was also a sleeper), a sitting chair, and a coffee table. The desk had a ethernet cord you can plug your laptop into. If you want to use your wifi, just open your internet page and it will automatically bring you to the Comfort Suites welcome page in which you have to click on "Agree" to activate the wifi. You will need to do this for your phone too. It also contains two usb plugs to charge your phone, etc..  The tv was 42" and a very nice size. However, you have to swivel it in whatever direction, if you want to watch it while laying in bed or in the sitting room. The bed is very comfortable. Down comforter, 5 pillows, and the bed was perfectly firm. Although there is a wall unit (for the A/C or heater) next to the bed, the thermostat is in the sitting room. There is a cabinet in which there is a microwave and a fridge. The fridge did not have the normal dial to where you can adjust the cooling settings, which was a little annoying since the bottle of water &amp; soda I put in the fridge at night, was semi-cold in the morning. So don't expect the fridge to keep anything super cool. The view outside my room was the dock area in the back of Walmart. Great hotel, bad location. The only thing I found a little annoying about that, was that I could hear the delivery semi-trucks arriving and parking throughout the night. But again, I was in town for a conference, not for vacation. I didn't mind it too much and it's not like I was looking for a view. My curtains were closed the entire time.Vending Machines: According to the directory, each floor has an ice machine and a vending machine.  Wrong. Each floor has an ice machine, but the only vending machine is on the first floor and it's on the very end of the right side of the hotel. So if you want a cold drink and you're on floors 2 or 3, you will be either taking the elevator or the stairs. And it's on the side of the lower number rooms. I was 307, so it was on that side of the hotel.Continental Breakfast: Just like any other Comfort Suites, you get a free breakfast. This breakfast is the usual continental fare. Instant scrambled eggs, bacon, waffle maker, choice of cereals, yogurt, fruit, coffee, juice. Customer Service: I just wanted to say that they provided me with excellent customer service. Unfortunately I forgot to pack my toothbrush, so I called the front desk at 6am and asked if they had any. The front desk representative said that they do, but they have no one to deliver it. I said no problem I will come get it. Before I could throw on some clothes, there was a knock on my door and the guy had a toothbrush and toothpaste for me. I tried to tip him and he would not accept it. I thought this was awesome! It was nice to see the front desk person go out of their way, especially so early in the morning. I'm kinda wondering if he was the manager as well....All and all, I would definitely stay here. DO NOT get this place confused with the not-as-nice Comfort "Inn" on the same street. I would definitely come back to this hotel and definitely recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r133543867-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>133543867</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>Great room/fair breakfast</t>
+  </si>
+  <si>
+    <t>The room was great, wonderful bed, big flat screen TV, excellent shower. However, both mornings we got to the breakfast area and were out of eggs and 2% milk. We were in there about 20 minutes and never got either, although I heard it reported several times.The waffles were good, and we finally ate hardboiled eggs. it was very clean though. (:Unfortunately, I had talked my son out of going to IHop because Comfort Suites always had such a great breakfast.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r133543790-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>133543790</t>
+  </si>
+  <si>
+    <t>Nice, new, and affordable overnight stay</t>
+  </si>
+  <si>
+    <t>New hotel, could still smell the newness of the carpet glue in the hallway! Typical Comfort Suites, comfy bed, good breakfast.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r131549140-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>131549140</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>reservations not followed</t>
+  </si>
+  <si>
+    <t>Went to Suites to make 4 room reservations for High School Graduations, for family. Needed one room to be wheel chair accessible shower. Was shown the room by staff, and made reservations 4 weeks in advance. Upon check in room was not available for handicapped father-in-law. The manager Ash Gandhi, was not available, so I waited til stay was over to express our disappointment. He was not at the Suites, but called me on the front desk phone. I expressed our concern and was told by him that reservations were not guaranteed. I then told how my wife had to come and take care of her dad because of the non accessible shower, and how hard it was for her dad. Mr. Gandhi hung up on me! Even the staff working at the front desk were shocked and expressed concern for us. Also a call to the main office to complain was taken, but no response or apology given. NOT HANDICAP FRIENDLYMoreShow less</t>
+  </si>
+  <si>
+    <t>Went to Suites to make 4 room reservations for High School Graduations, for family. Needed one room to be wheel chair accessible shower. Was shown the room by staff, and made reservations 4 weeks in advance. Upon check in room was not available for handicapped father-in-law. The manager Ash Gandhi, was not available, so I waited til stay was over to express our disappointment. He was not at the Suites, but called me on the front desk phone. I expressed our concern and was told by him that reservations were not guaranteed. I then told how my wife had to come and take care of her dad because of the non accessible shower, and how hard it was for her dad. Mr. Gandhi hung up on me! Even the staff working at the front desk were shocked and expressed concern for us. Also a call to the main office to complain was taken, but no response or apology given. NOT HANDICAP FRIENDLYMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r130441626-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>130441626</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>New, clean, and friendly</t>
+  </si>
+  <si>
+    <t>Good experience overall.  Staff was very friendly and helpful.  Hotel is only a few months old, and still smells new.  Excellent beds, large flat screen tvs.  Breakfast area and lobby are attractive, and the breakfast was above motel average.  The hotel was not crowded.  The location is good if you prefer to be just outside the crowded Houston area.  Katy is not scenic, but has the outlet mall, at least two large movie theaters, and many chain restaurants.  It's about a 30 to 40 minute drive into the middle of Houston (unless you are going at rush hour).  Walmart, Starbucks, a strip mall, and several other motels are within a 5 minute walk from the property.  The only negative was that the AC in our room did not seem to quite do the job.  We like to sleep in a cold room, and so set the thermostat on 65.  The cooler ran all night and finally got down to about 69 by morning, and then started creeping back up.  The weather outside was not particularly hot.  I mentioned my concern to the desk in the morning, and the lady said she had not had any complaints, but would have them check or change the filter in our unit.  I was surprised to notice that hotels in the Houston area seem to be about 25% more expensive than our home area, San Antonio, Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Good experience overall.  Staff was very friendly and helpful.  Hotel is only a few months old, and still smells new.  Excellent beds, large flat screen tvs.  Breakfast area and lobby are attractive, and the breakfast was above motel average.  The hotel was not crowded.  The location is good if you prefer to be just outside the crowded Houston area.  Katy is not scenic, but has the outlet mall, at least two large movie theaters, and many chain restaurants.  It's about a 30 to 40 minute drive into the middle of Houston (unless you are going at rush hour).  Walmart, Starbucks, a strip mall, and several other motels are within a 5 minute walk from the property.  The only negative was that the AC in our room did not seem to quite do the job.  We like to sleep in a cold room, and so set the thermostat on 65.  The cooler ran all night and finally got down to about 69 by morning, and then started creeping back up.  The weather outside was not particularly hot.  I mentioned my concern to the desk in the morning, and the lady said she had not had any complaints, but would have them check or change the filter in our unit.  I was surprised to notice that hotels in the Houston area seem to be about 25% more expensive than our home area, San Antonio, Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r129828712-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>129828712</t>
+  </si>
+  <si>
+    <t>05/12/2012</t>
+  </si>
+  <si>
+    <t>Wonderful stay!</t>
+  </si>
+  <si>
+    <t>Our family recently stayed in this hotel and were very impressed with everything.  From the time we checked in late on a Saturday night until leaving the following Saturday morning, we had nothing but positive comments for the front desk staff.  They were very friendly and helpful and made our stay positive.  My wife liked the bedding in our room so much and now doesn't want to use our bedding at home.  Breakfast was delicious and there were enough varities of food to choose from, we were very impressed with the waffle maker that made waffles in the shape of the state of Texas.  The pool and hot tub were great.  We were also happy for the WalMart store being right behind the hotel.  We would definitely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family recently stayed in this hotel and were very impressed with everything.  From the time we checked in late on a Saturday night until leaving the following Saturday morning, we had nothing but positive comments for the front desk staff.  They were very friendly and helpful and made our stay positive.  My wife liked the bedding in our room so much and now doesn't want to use our bedding at home.  Breakfast was delicious and there were enough varities of food to choose from, we were very impressed with the waffle maker that made waffles in the shape of the state of Texas.  The pool and hot tub were great.  We were also happy for the WalMart store being right behind the hotel.  We would definitely come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r129788608-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>129788608</t>
+  </si>
+  <si>
+    <t>05/11/2012</t>
+  </si>
+  <si>
+    <t>Almost a perfect stay</t>
+  </si>
+  <si>
+    <t>Bed is wonderful. Room is nice. This hotel is fairly new. My only problem is the refrigerator did not work. I didn't find out until I had already unpacked. I never like to pack up and go to another room so I let it go. I'd stay here again in a heart beat. Bed was just great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r124717624-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>124717624</t>
+  </si>
+  <si>
+    <t>02/17/2012</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on Feb. 14. It was new, but close to the freeway, so was worried about noise. Our room was right by the elevators, so was also worried about the noise. All the worry for nothing as it was amazingly quiet. The room was very nice size, with a sitting area. The bed was one of the most comfortable we have slept on. I would definitely pick this hotel again. The staff were very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r124552024-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>124552024</t>
+  </si>
+  <si>
+    <t>02/13/2012</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel with extra comfy bed</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  New and clean.  The king-size bed was very comfortable.  Rooms decorated beautifully with nice big HD TV.  Breakfast was good.  And best of all good price.  We will be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r124536054-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>124536054</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>I have been to a lot of places but this one was a little different.  The hotel is very elegant and the front desk only helped.  I could tell it was brand new (the smell was still there). Will be back for sure.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r123470478-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>123470478</t>
+  </si>
+  <si>
+    <t>01/22/2012</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel, awesome stay</t>
+  </si>
+  <si>
+    <t>We had an awesome experience at this hotel. The front desk staff was friendly and so helpful.  This is a brand new hotel and our suite was beautiful.  I was so impressed, we will be back! Wonderful stay, beds and pillows so comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r123400841-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>123400841</t>
+  </si>
+  <si>
+    <t>01/21/2012</t>
+  </si>
+  <si>
+    <t>Exceptional hotel</t>
+  </si>
+  <si>
+    <t>We checked in on January 2 and were the first guests at this new hotel.  The staff is great and very helpful.  Beautifully decorated and very comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r123370735-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>123370735</t>
+  </si>
+  <si>
+    <t>01/20/2012</t>
+  </si>
+  <si>
+    <t>Great New Hotel!</t>
+  </si>
+  <si>
+    <t>Right in front of Katy Mills Mall! We could walk to the mall.  We also came down for a tournament and the front desk was very kind in helping us out.  Rooms were great.  The TV was nice.  It still smells Brand New. Will definitely be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r123210827-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>123210827</t>
+  </si>
+  <si>
+    <t>01/17/2012</t>
+  </si>
+  <si>
+    <t>New Hotel in Katy</t>
+  </si>
+  <si>
+    <t>Just spent 4 nights at this hotel which opened January 1st, 2012.  Very enjoyable stay.  Staff very helpful and friendly.  Being brand new, the hotel still had a few wrinkles to work out but nothing serious.  Recommed this hotel highly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r123186615-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>123186615</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>This place is right next to highway and didn't hear a sound all night.  My Wife and I were worried about that going into the hotel.  Breakfast was great and so was the look of hotel.  The TV was huge and I loved watching Football on it. The staff was also very friendly and helpful when giving directions for places to eat.  Would definitely Stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d2437163-r123117884-Comfort_Suites_at_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>123117884</t>
+  </si>
+  <si>
+    <t>01/15/2012</t>
+  </si>
+  <si>
+    <t>Open only one week</t>
+  </si>
+  <si>
+    <t>Have been waiting for this hotel to open. Wow, never stayed in a NEW hotel before. Everything clean! Staff GREAT. Front desk personnel very helpful. Housekeeping very polite. Great breakfast selections. I have a wheat allergy and there were very many items to choose from. Did NOT hear any to the highway noise. Will be staying here again when we come to visit family.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2122,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2154,5558 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>123</v>
+      </c>
+      <c r="O24" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>200</v>
+      </c>
+      <c r="O28" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>224</v>
+      </c>
+      <c r="X30" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" t="s">
+        <v>241</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>242</v>
+      </c>
+      <c r="O33" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" t="s">
+        <v>253</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>264</v>
+      </c>
+      <c r="O37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>272</v>
+      </c>
+      <c r="X38" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K39" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>271</v>
+      </c>
+      <c r="O39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>282</v>
+      </c>
+      <c r="J40" t="s">
+        <v>283</v>
+      </c>
+      <c r="K40" t="s">
+        <v>284</v>
+      </c>
+      <c r="L40" t="s">
+        <v>285</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>286</v>
+      </c>
+      <c r="O40" t="s">
+        <v>287</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>289</v>
+      </c>
+      <c r="J41" t="s">
+        <v>290</v>
+      </c>
+      <c r="K41" t="s">
+        <v>291</v>
+      </c>
+      <c r="L41" t="s">
+        <v>292</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>293</v>
+      </c>
+      <c r="O41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>296</v>
+      </c>
+      <c r="J42" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s">
+        <v>299</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>293</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>223</v>
+      </c>
+      <c r="O43" t="s">
+        <v>85</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L44" t="s">
+        <v>308</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>237</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>309</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>310</v>
+      </c>
+      <c r="J45" t="s">
+        <v>307</v>
+      </c>
+      <c r="K45" t="s">
+        <v>311</v>
+      </c>
+      <c r="L45" t="s">
+        <v>312</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>237</v>
+      </c>
+      <c r="O45" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>314</v>
+      </c>
+      <c r="J46" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" t="s">
+        <v>317</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>318</v>
+      </c>
+      <c r="O46" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>319</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>320</v>
+      </c>
+      <c r="J47" t="s">
+        <v>321</v>
+      </c>
+      <c r="K47" t="s">
+        <v>322</v>
+      </c>
+      <c r="L47" t="s">
+        <v>323</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>318</v>
+      </c>
+      <c r="O47" t="s">
+        <v>287</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>326</v>
+      </c>
+      <c r="J48" t="s">
+        <v>327</v>
+      </c>
+      <c r="K48" t="s">
+        <v>328</v>
+      </c>
+      <c r="L48" t="s">
+        <v>329</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>330</v>
+      </c>
+      <c r="O48" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>331</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>332</v>
+      </c>
+      <c r="J49" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" t="s">
+        <v>334</v>
+      </c>
+      <c r="L49" t="s">
+        <v>335</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>336</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>337</v>
+      </c>
+      <c r="J50" t="s">
+        <v>338</v>
+      </c>
+      <c r="K50" t="s">
+        <v>339</v>
+      </c>
+      <c r="L50" t="s">
+        <v>340</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>341</v>
+      </c>
+      <c r="O50" t="s">
+        <v>92</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>342</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>343</v>
+      </c>
+      <c r="J51" t="s">
+        <v>344</v>
+      </c>
+      <c r="K51" t="s">
+        <v>345</v>
+      </c>
+      <c r="L51" t="s">
+        <v>346</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>341</v>
+      </c>
+      <c r="O51" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>347</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>348</v>
+      </c>
+      <c r="J52" t="s">
+        <v>349</v>
+      </c>
+      <c r="K52" t="s">
+        <v>350</v>
+      </c>
+      <c r="L52" t="s">
+        <v>351</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>352</v>
+      </c>
+      <c r="O52" t="s">
+        <v>287</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>353</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>354</v>
+      </c>
+      <c r="J53" t="s">
+        <v>355</v>
+      </c>
+      <c r="K53" t="s">
+        <v>356</v>
+      </c>
+      <c r="L53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>358</v>
+      </c>
+      <c r="O53" t="s">
+        <v>85</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>359</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>360</v>
+      </c>
+      <c r="J54" t="s">
+        <v>361</v>
+      </c>
+      <c r="K54" t="s">
+        <v>362</v>
+      </c>
+      <c r="L54" t="s">
+        <v>363</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>364</v>
+      </c>
+      <c r="O54" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>365</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>366</v>
+      </c>
+      <c r="J55" t="s">
+        <v>367</v>
+      </c>
+      <c r="K55" t="s">
+        <v>368</v>
+      </c>
+      <c r="L55" t="s">
+        <v>369</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>358</v>
+      </c>
+      <c r="O55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>371</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>372</v>
+      </c>
+      <c r="J56" t="s">
+        <v>373</v>
+      </c>
+      <c r="K56" t="s">
+        <v>374</v>
+      </c>
+      <c r="L56" t="s">
+        <v>375</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>364</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>376</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>377</v>
+      </c>
+      <c r="J57" t="s">
+        <v>378</v>
+      </c>
+      <c r="K57" t="s">
+        <v>379</v>
+      </c>
+      <c r="L57" t="s">
+        <v>380</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>381</v>
+      </c>
+      <c r="O57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>383</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>384</v>
+      </c>
+      <c r="J58" t="s">
+        <v>385</v>
+      </c>
+      <c r="K58" t="s">
+        <v>386</v>
+      </c>
+      <c r="L58" t="s">
+        <v>387</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>364</v>
+      </c>
+      <c r="O58" t="s">
+        <v>287</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>389</v>
+      </c>
+      <c r="J59" t="s">
+        <v>390</v>
+      </c>
+      <c r="K59" t="s">
+        <v>391</v>
+      </c>
+      <c r="L59" t="s">
+        <v>392</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>381</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>393</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>394</v>
+      </c>
+      <c r="J60" t="s">
+        <v>395</v>
+      </c>
+      <c r="K60" t="s">
+        <v>396</v>
+      </c>
+      <c r="L60" t="s">
+        <v>397</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>381</v>
+      </c>
+      <c r="O60" t="s">
+        <v>85</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>398</v>
+      </c>
+      <c r="X60" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>401</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>402</v>
+      </c>
+      <c r="J61" t="s">
+        <v>403</v>
+      </c>
+      <c r="K61" t="s">
+        <v>404</v>
+      </c>
+      <c r="L61" t="s">
+        <v>405</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>406</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>407</v>
+      </c>
+      <c r="X61" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>410</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>411</v>
+      </c>
+      <c r="J62" t="s">
+        <v>412</v>
+      </c>
+      <c r="K62" t="s">
+        <v>413</v>
+      </c>
+      <c r="L62" t="s">
+        <v>414</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>352</v>
+      </c>
+      <c r="O62" t="s">
+        <v>92</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>415</v>
+      </c>
+      <c r="X62" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>418</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>419</v>
+      </c>
+      <c r="J63" t="s">
+        <v>420</v>
+      </c>
+      <c r="K63" t="s">
+        <v>421</v>
+      </c>
+      <c r="L63" t="s">
+        <v>422</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>352</v>
+      </c>
+      <c r="O63" t="s">
+        <v>85</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>415</v>
+      </c>
+      <c r="X63" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>424</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>425</v>
+      </c>
+      <c r="J64" t="s">
+        <v>426</v>
+      </c>
+      <c r="K64" t="s">
+        <v>427</v>
+      </c>
+      <c r="L64" t="s">
+        <v>428</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>429</v>
+      </c>
+      <c r="O64" t="s">
+        <v>92</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>415</v>
+      </c>
+      <c r="X64" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>431</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>432</v>
+      </c>
+      <c r="J65" t="s">
+        <v>433</v>
+      </c>
+      <c r="K65" t="s">
+        <v>434</v>
+      </c>
+      <c r="L65" t="s">
+        <v>435</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>436</v>
+      </c>
+      <c r="O65" t="s">
+        <v>92</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>437</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>438</v>
+      </c>
+      <c r="J66" t="s">
+        <v>439</v>
+      </c>
+      <c r="K66" t="s">
+        <v>440</v>
+      </c>
+      <c r="L66" t="s">
+        <v>441</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>442</v>
+      </c>
+      <c r="O66" t="s">
+        <v>92</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>443</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>444</v>
+      </c>
+      <c r="J67" t="s">
+        <v>445</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>442</v>
+      </c>
+      <c r="O67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>446</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>447</v>
+      </c>
+      <c r="J68" t="s">
+        <v>448</v>
+      </c>
+      <c r="K68" t="s">
+        <v>449</v>
+      </c>
+      <c r="L68" t="s">
+        <v>450</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>451</v>
+      </c>
+      <c r="O68" t="s">
+        <v>92</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>453</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>454</v>
+      </c>
+      <c r="J69" t="s">
+        <v>455</v>
+      </c>
+      <c r="K69" t="s">
+        <v>456</v>
+      </c>
+      <c r="L69" t="s">
+        <v>457</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>458</v>
+      </c>
+      <c r="O69" t="s">
+        <v>92</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>459</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>460</v>
+      </c>
+      <c r="J70" t="s">
+        <v>461</v>
+      </c>
+      <c r="K70" t="s">
+        <v>462</v>
+      </c>
+      <c r="L70" t="s">
+        <v>463</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>464</v>
+      </c>
+      <c r="O70" t="s">
+        <v>61</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>465</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>466</v>
+      </c>
+      <c r="J71" t="s">
+        <v>467</v>
+      </c>
+      <c r="K71" t="s">
+        <v>468</v>
+      </c>
+      <c r="L71" t="s">
+        <v>469</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>470</v>
+      </c>
+      <c r="O71" t="s">
+        <v>92</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>472</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>473</v>
+      </c>
+      <c r="J72" t="s">
+        <v>474</v>
+      </c>
+      <c r="K72" t="s">
+        <v>475</v>
+      </c>
+      <c r="L72" t="s">
+        <v>476</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>470</v>
+      </c>
+      <c r="O72" t="s">
+        <v>85</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>477</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>478</v>
+      </c>
+      <c r="J73" t="s">
+        <v>479</v>
+      </c>
+      <c r="K73" t="s">
+        <v>480</v>
+      </c>
+      <c r="L73" t="s">
+        <v>481</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>482</v>
+      </c>
+      <c r="O73" t="s">
+        <v>85</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>484</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>485</v>
+      </c>
+      <c r="J74" t="s">
+        <v>486</v>
+      </c>
+      <c r="K74" t="s">
+        <v>487</v>
+      </c>
+      <c r="L74" t="s">
+        <v>488</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>489</v>
+      </c>
+      <c r="O74" t="s">
+        <v>92</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>490</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>491</v>
+      </c>
+      <c r="J75" t="s">
+        <v>486</v>
+      </c>
+      <c r="K75" t="s">
+        <v>492</v>
+      </c>
+      <c r="L75" t="s">
+        <v>493</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>494</v>
+      </c>
+      <c r="O75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>495</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>496</v>
+      </c>
+      <c r="J76" t="s">
+        <v>497</v>
+      </c>
+      <c r="K76" t="s">
+        <v>498</v>
+      </c>
+      <c r="L76" t="s">
+        <v>499</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>494</v>
+      </c>
+      <c r="O76" t="s">
+        <v>92</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>501</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>502</v>
+      </c>
+      <c r="J77" t="s">
+        <v>503</v>
+      </c>
+      <c r="K77" t="s">
+        <v>504</v>
+      </c>
+      <c r="L77" t="s">
+        <v>505</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>506</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>508</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>509</v>
+      </c>
+      <c r="J78" t="s">
+        <v>510</v>
+      </c>
+      <c r="K78" t="s">
+        <v>511</v>
+      </c>
+      <c r="L78" t="s">
+        <v>512</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>506</v>
+      </c>
+      <c r="O78" t="s">
+        <v>92</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>514</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>515</v>
+      </c>
+      <c r="J79" t="s">
+        <v>516</v>
+      </c>
+      <c r="K79" t="s">
+        <v>517</v>
+      </c>
+      <c r="L79" t="s">
+        <v>518</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>506</v>
+      </c>
+      <c r="O79" t="s">
+        <v>85</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>519</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>520</v>
+      </c>
+      <c r="J80" t="s">
+        <v>521</v>
+      </c>
+      <c r="K80" t="s">
+        <v>522</v>
+      </c>
+      <c r="L80" t="s">
+        <v>523</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>524</v>
+      </c>
+      <c r="O80" t="s">
+        <v>92</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>525</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>526</v>
+      </c>
+      <c r="J81" t="s">
+        <v>527</v>
+      </c>
+      <c r="K81" t="s">
+        <v>528</v>
+      </c>
+      <c r="L81" t="s">
+        <v>529</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>524</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>530</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>531</v>
+      </c>
+      <c r="J82" t="s">
+        <v>527</v>
+      </c>
+      <c r="K82" t="s">
+        <v>532</v>
+      </c>
+      <c r="L82" t="s">
+        <v>533</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>534</v>
+      </c>
+      <c r="O82" t="s">
+        <v>85</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>535</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>536</v>
+      </c>
+      <c r="J83" t="s">
+        <v>537</v>
+      </c>
+      <c r="K83" t="s">
+        <v>538</v>
+      </c>
+      <c r="L83" t="s">
+        <v>539</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>540</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>541</v>
+      </c>
+      <c r="J84" t="s">
+        <v>542</v>
+      </c>
+      <c r="K84" t="s">
+        <v>543</v>
+      </c>
+      <c r="L84" t="s">
+        <v>544</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>534</v>
+      </c>
+      <c r="O84" t="s">
+        <v>61</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>545</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>546</v>
+      </c>
+      <c r="J85" t="s">
+        <v>547</v>
+      </c>
+      <c r="K85" t="s">
+        <v>548</v>
+      </c>
+      <c r="L85" t="s">
+        <v>549</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>534</v>
+      </c>
+      <c r="O85" t="s">
+        <v>92</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>550</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>551</v>
+      </c>
+      <c r="J86" t="s">
+        <v>552</v>
+      </c>
+      <c r="K86" t="s">
+        <v>553</v>
+      </c>
+      <c r="L86" t="s">
+        <v>554</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>534</v>
+      </c>
+      <c r="O86" t="s">
+        <v>61</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>555</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>556</v>
+      </c>
+      <c r="J87" t="s">
+        <v>557</v>
+      </c>
+      <c r="K87" t="s">
+        <v>558</v>
+      </c>
+      <c r="L87" t="s">
+        <v>559</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>534</v>
+      </c>
+      <c r="O87" t="s">
+        <v>61</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>61795</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>560</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>561</v>
+      </c>
+      <c r="J88" t="s">
+        <v>562</v>
+      </c>
+      <c r="K88" t="s">
+        <v>563</v>
+      </c>
+      <c r="L88" t="s">
+        <v>564</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>534</v>
+      </c>
+      <c r="O88" t="s">
+        <v>92</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
